--- a/第11组/项目计划表 .xlsx
+++ b/第11组/项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -124,6 +124,45 @@
   </si>
   <si>
     <t>用例描述普通用户（搜索群、申请加入群模块）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.11 第六周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论UI设计，手机端的UI设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论UI设计，手机端的UI设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论UI设计，PC端的UI设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论UI设计，系统管理员UI设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论UI设计，系统管理员UI设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：对一些作图软件不是很熟悉，花费了挺多时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,11 +240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,12 +592,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -646,12 +688,12 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -742,12 +784,12 @@
       <c r="D18" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -770,7 +812,9 @@
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -780,7 +824,9 @@
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -790,7 +836,9 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -800,7 +848,9 @@
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -810,7 +860,9 @@
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -827,8 +879,106 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A1:D1"/>
